--- a/PlayerData.xlsx
+++ b/PlayerData.xlsx
@@ -7,13 +7,12 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QB" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RB" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WR" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="D_ST" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="K" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QB" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RB" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="D_ST" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="K" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2036,14 +2035,983 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>316.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>302.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>288.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>287.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>284.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>278.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>278.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>275.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>273.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>272.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>272.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>271.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>269.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>264.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>263.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>259.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>254.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>254.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>253.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>253.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>247.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>242.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>233.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>201.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>193.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>121.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -2072,962 +3040,962 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B2" t="n">
-        <v>317</v>
+        <v>272.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B3" t="n">
-        <v>316.1</v>
+        <v>262.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="B4" t="n">
-        <v>302.7</v>
+        <v>255.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B5" t="n">
-        <v>294</v>
+        <v>248.9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B6" t="n">
-        <v>288.3</v>
+        <v>221.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="B7" t="n">
-        <v>287.4</v>
+        <v>218.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B8" t="n">
-        <v>284.2</v>
+        <v>216.9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B9" t="n">
-        <v>278.8</v>
+        <v>211.3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B10" t="n">
-        <v>278.1</v>
+        <v>205.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="B11" t="n">
-        <v>278.1</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="B12" t="n">
-        <v>275.7</v>
+        <v>197.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B13" t="n">
-        <v>273.6</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B14" t="n">
-        <v>272.9</v>
+        <v>191.3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B15" t="n">
-        <v>272.2</v>
+        <v>175.9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B16" t="n">
-        <v>271.6</v>
+        <v>172.3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="B17" t="n">
-        <v>269.9</v>
+        <v>167.7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="B18" t="n">
-        <v>264.1</v>
+        <v>164.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B19" t="n">
-        <v>263.7</v>
+        <v>163.7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="B20" t="n">
-        <v>259.9</v>
+        <v>161.8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="B21" t="n">
-        <v>254.3</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="B22" t="n">
-        <v>254.1</v>
+        <v>148.2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="B23" t="n">
-        <v>253.9</v>
+        <v>145.4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B24" t="n">
-        <v>253.5</v>
+        <v>140.3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="B25" t="n">
-        <v>253.3</v>
+        <v>139.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="B26" t="n">
-        <v>247.7</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B27" t="n">
-        <v>242.2</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="B28" t="n">
-        <v>242</v>
+        <v>128.9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B29" t="n">
-        <v>233.7</v>
+        <v>127.8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B30" t="n">
-        <v>201.3</v>
+        <v>126.3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="B31" t="n">
-        <v>193.3</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B32" t="n">
-        <v>129</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="B33" t="n">
-        <v>121.7</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="B34" t="n">
-        <v>106.4</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="B35" t="n">
-        <v>49.5</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="B36" t="n">
-        <v>49.3</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="B37" t="n">
-        <v>44.7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="B38" t="n">
-        <v>27.5</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="B39" t="n">
-        <v>26.4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="B40" t="n">
-        <v>20.3</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="B41" t="n">
-        <v>15.3</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="B42" t="n">
-        <v>7.6</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B43" t="n">
-        <v>7.4</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B44" t="n">
-        <v>7.2</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="B45" t="n">
-        <v>6.2</v>
+        <v>90.09999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="B46" t="n">
-        <v>1.3</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="B47" t="n">
-        <v>1.3</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B48" t="n">
-        <v>1.2</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="B49" t="n">
-        <v>1.2</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="B50" t="n">
-        <v>1.2</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="B51" t="n">
-        <v>1.2</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="B52" t="n">
-        <v>1.2</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="B53" t="n">
-        <v>1.2</v>
+        <v>78.09999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="B54" t="n">
-        <v>1.2</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="B56" t="n">
-        <v>1.1</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="B57" t="n">
-        <v>1.1</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="B58" t="n">
-        <v>1.1</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="B59" t="n">
-        <v>1.1</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B60" t="n">
-        <v>1.1</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="B61" t="n">
-        <v>1.1</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="B62" t="n">
-        <v>1.1</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="B63" t="n">
-        <v>1.1</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="B64" t="n">
-        <v>1.1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="B65" t="n">
-        <v>1.1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>228</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>
@@ -3059,962 +4027,962 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="B2" t="n">
-        <v>272.4</v>
+        <v>211.7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="B3" t="n">
-        <v>262.2</v>
+        <v>197.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="B4" t="n">
-        <v>255.5</v>
+        <v>187.1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="B5" t="n">
-        <v>248.9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B6" t="n">
-        <v>221.5</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="B7" t="n">
-        <v>218.6</v>
+        <v>178.1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="B8" t="n">
-        <v>216.9</v>
+        <v>177.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B9" t="n">
-        <v>211.3</v>
+        <v>167.1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="B10" t="n">
-        <v>205.6</v>
+        <v>166.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="B11" t="n">
-        <v>203</v>
+        <v>157.5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="B12" t="n">
-        <v>197.6</v>
+        <v>154.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="B13" t="n">
-        <v>192.3</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="B14" t="n">
-        <v>191.3</v>
+        <v>147.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="B15" t="n">
-        <v>175.9</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="B16" t="n">
-        <v>172.3</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="B17" t="n">
-        <v>167.7</v>
+        <v>143.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="B18" t="n">
-        <v>164.6</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="B19" t="n">
-        <v>163.7</v>
+        <v>139.2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="B20" t="n">
-        <v>161.8</v>
+        <v>138.4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="B21" t="n">
-        <v>158</v>
+        <v>138.3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="B22" t="n">
-        <v>148.2</v>
+        <v>137.3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="B23" t="n">
-        <v>145.4</v>
+        <v>132.7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="B24" t="n">
-        <v>140.3</v>
+        <v>132.7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="B25" t="n">
-        <v>139.8</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="B26" t="n">
-        <v>137</v>
+        <v>127.8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="B27" t="n">
-        <v>130.1</v>
+        <v>127.6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="B28" t="n">
-        <v>128.9</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="B29" t="n">
-        <v>127.8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="B30" t="n">
-        <v>126.3</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="B31" t="n">
-        <v>121</v>
+        <v>120.9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="B32" t="n">
-        <v>116.5</v>
+        <v>120.4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="B33" t="n">
-        <v>115.3</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="B34" t="n">
-        <v>115.3</v>
+        <v>118.9</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="B35" t="n">
-        <v>114.7</v>
+        <v>118.4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="B36" t="n">
-        <v>107.5</v>
+        <v>118.3</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="B37" t="n">
-        <v>107</v>
+        <v>118.1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="B38" t="n">
-        <v>106.6</v>
+        <v>118.1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="B39" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="B40" t="n">
-        <v>102.4</v>
+        <v>116.7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="B41" t="n">
-        <v>97.09999999999999</v>
+        <v>116.7</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="B42" t="n">
-        <v>94.59999999999999</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="B43" t="n">
-        <v>92.09999999999999</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="B44" t="n">
-        <v>91.59999999999999</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="B45" t="n">
-        <v>90.09999999999999</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="B46" t="n">
-        <v>88.09999999999999</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="B47" t="n">
-        <v>83.59999999999999</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="B48" t="n">
-        <v>82.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="B49" t="n">
-        <v>81.7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="B50" t="n">
-        <v>80.8</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="B51" t="n">
-        <v>80.59999999999999</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="B52" t="n">
-        <v>79.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="B53" t="n">
-        <v>78.09999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="B54" t="n">
-        <v>76.2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="B55" t="n">
-        <v>75.7</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="B56" t="n">
-        <v>73.5</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="B57" t="n">
-        <v>72.40000000000001</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="B58" t="n">
-        <v>71.59999999999999</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="B59" t="n">
-        <v>70.8</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B60" t="n">
-        <v>70.09999999999999</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="B61" t="n">
-        <v>69.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="B62" t="n">
-        <v>65.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="B63" t="n">
-        <v>65.2</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="B64" t="n">
-        <v>62</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="B65" t="n">
-        <v>62</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="B66" t="n">
-        <v>61.6</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="B67" t="n">
-        <v>60.6</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="B68" t="n">
-        <v>52.9</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="B69" t="n">
-        <v>51</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="B70" t="n">
-        <v>49</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="B71" t="n">
-        <v>47.2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="B72" t="n">
-        <v>45.6</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="B73" t="n">
-        <v>45.3</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="B74" t="n">
-        <v>44.2</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="B75" t="n">
-        <v>43.9</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="B76" t="n">
-        <v>43.9</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="B77" t="n">
-        <v>43.8</v>
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="B78" t="n">
-        <v>43.5</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="B79" t="n">
-        <v>38.7</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="B80" t="n">
-        <v>34.2</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="B81" t="n">
-        <v>33.4</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="B82" t="n">
-        <v>31.8</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="B83" t="n">
-        <v>30.6</v>
+        <v>66.90000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c r="B84" t="n">
-        <v>30.3</v>
+        <v>66.09999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="B85" t="n">
-        <v>29.9</v>
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="B86" t="n">
-        <v>28.1</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>327</v>
       </c>
       <c r="B87" t="n">
-        <v>27.1</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
       <c r="B88" t="n">
-        <v>26.9</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="B89" t="n">
-        <v>23.1</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="B90" t="n">
-        <v>21.6</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="B91" t="n">
-        <v>20.4</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="B92" t="n">
-        <v>19.7</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="B93" t="n">
-        <v>19.3</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="B94" t="n">
-        <v>16.2</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="B95" t="n">
-        <v>15.1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="B96" t="n">
-        <v>14.2</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>337</v>
       </c>
       <c r="B97" t="n">
-        <v>13.8</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="B98" t="n">
-        <v>13.6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="B99" t="n">
-        <v>12</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="B100" t="n">
-        <v>11.5</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="B101" t="n">
-        <v>10.8</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="B102" t="n">
-        <v>10.2</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="B103" t="n">
-        <v>9.6</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="B104" t="n">
-        <v>9.300000000000001</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="B105" t="n">
-        <v>9.199999999999999</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="B106" t="n">
-        <v>8.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="B107" t="n">
-        <v>8.300000000000001</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="B108" t="n">
-        <v>8</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="B109" t="n">
-        <v>8</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="B110" t="n">
-        <v>7.7</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="B111" t="n">
-        <v>7.4</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="B112" t="n">
-        <v>7.2</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="B113" t="n">
-        <v>7.1</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="B114" t="n">
-        <v>7.1</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="B115" t="n">
-        <v>7</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="B116" t="n">
-        <v>6.5</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="B117" t="n">
-        <v>6.5</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="B118" t="n">
-        <v>6</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="B119" t="n">
-        <v>5.5</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="B120" t="n">
-        <v>5.4</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
       <c r="B121" t="n">
-        <v>5.1</v>
+        <v>23.3</v>
       </c>
     </row>
   </sheetData>
@@ -4046,962 +5014,962 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="B2" t="n">
-        <v>211.7</v>
+        <v>175.3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="B3" t="n">
-        <v>197.5</v>
+        <v>136.1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="B4" t="n">
-        <v>187.1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="B5" t="n">
-        <v>179</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="B6" t="n">
-        <v>178.5</v>
+        <v>116.3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="B7" t="n">
-        <v>178.1</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="B8" t="n">
-        <v>177.6</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="B9" t="n">
-        <v>167.1</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="B10" t="n">
-        <v>166.8</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="B11" t="n">
-        <v>157.5</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="B12" t="n">
-        <v>154.8</v>
+        <v>83.09999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="B13" t="n">
-        <v>151</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="B14" t="n">
-        <v>147.6</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="B15" t="n">
-        <v>145</v>
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="B16" t="n">
-        <v>144.5</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="B17" t="n">
-        <v>143.5</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="B18" t="n">
-        <v>140.5</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="B19" t="n">
-        <v>139.2</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="B20" t="n">
-        <v>138.4</v>
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="B21" t="n">
-        <v>138.3</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="B22" t="n">
-        <v>137.3</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="B23" t="n">
-        <v>132.7</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="B24" t="n">
-        <v>132.7</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="B25" t="n">
-        <v>128.4</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="B26" t="n">
-        <v>127.8</v>
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="B27" t="n">
-        <v>127.6</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>386</v>
       </c>
       <c r="B28" t="n">
-        <v>125.5</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>387</v>
       </c>
       <c r="B29" t="n">
-        <v>125</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>388</v>
       </c>
       <c r="B30" t="n">
-        <v>122.4</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>389</v>
       </c>
       <c r="B31" t="n">
-        <v>120.9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>390</v>
       </c>
       <c r="B32" t="n">
-        <v>120.4</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>391</v>
       </c>
       <c r="B33" t="n">
-        <v>120.1</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="B34" t="n">
-        <v>118.9</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="B35" t="n">
-        <v>118.4</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>394</v>
       </c>
       <c r="B36" t="n">
-        <v>118.3</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
       <c r="B37" t="n">
-        <v>118.1</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="B38" t="n">
-        <v>118.1</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>397</v>
       </c>
       <c r="B39" t="n">
-        <v>118</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
       <c r="B40" t="n">
-        <v>116.7</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="B41" t="n">
-        <v>116.7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="B42" t="n">
-        <v>115.9</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>401</v>
       </c>
       <c r="B43" t="n">
-        <v>115.3</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>402</v>
       </c>
       <c r="B44" t="n">
-        <v>115.1</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>403</v>
       </c>
       <c r="B45" t="n">
-        <v>114.9</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>404</v>
       </c>
       <c r="B46" t="n">
-        <v>107.8</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>405</v>
       </c>
       <c r="B47" t="n">
-        <v>107.7</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>406</v>
       </c>
       <c r="B48" t="n">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>407</v>
       </c>
       <c r="B49" t="n">
-        <v>107</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="B50" t="n">
-        <v>103.4</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>409</v>
       </c>
       <c r="B51" t="n">
-        <v>100.5</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="B52" t="n">
-        <v>100.1</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>411</v>
       </c>
       <c r="B53" t="n">
-        <v>99.7</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>412</v>
       </c>
       <c r="B54" t="n">
-        <v>96</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>295</v>
+        <v>413</v>
       </c>
       <c r="B55" t="n">
-        <v>95.40000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>296</v>
+        <v>414</v>
       </c>
       <c r="B56" t="n">
-        <v>94.90000000000001</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
       <c r="B57" t="n">
-        <v>94.2</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>416</v>
       </c>
       <c r="B58" t="n">
-        <v>91.5</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>299</v>
+        <v>417</v>
       </c>
       <c r="B59" t="n">
-        <v>89.5</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>300</v>
+        <v>418</v>
       </c>
       <c r="B60" t="n">
-        <v>86.90000000000001</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>419</v>
       </c>
       <c r="B61" t="n">
-        <v>85.90000000000001</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>420</v>
       </c>
       <c r="B62" t="n">
-        <v>83.59999999999999</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
       <c r="B63" t="n">
-        <v>82.8</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>304</v>
+        <v>422</v>
       </c>
       <c r="B64" t="n">
-        <v>81.90000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
       <c r="B65" t="n">
-        <v>81.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>424</v>
       </c>
       <c r="B66" t="n">
-        <v>81.5</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>425</v>
       </c>
       <c r="B67" t="n">
-        <v>79.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>426</v>
       </c>
       <c r="B68" t="n">
-        <v>79.7</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
       <c r="B69" t="n">
-        <v>77.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="B70" t="n">
-        <v>77.09999999999999</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>429</v>
       </c>
       <c r="B71" t="n">
-        <v>77</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>430</v>
       </c>
       <c r="B72" t="n">
-        <v>76.59999999999999</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>431</v>
       </c>
       <c r="B73" t="n">
-        <v>76.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>432</v>
       </c>
       <c r="B74" t="n">
-        <v>76.3</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>433</v>
       </c>
       <c r="B75" t="n">
-        <v>75.09999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>434</v>
       </c>
       <c r="B76" t="n">
-        <v>72.09999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>435</v>
       </c>
       <c r="B77" t="n">
-        <v>71.90000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>318</v>
+        <v>436</v>
       </c>
       <c r="B78" t="n">
-        <v>71.59999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>319</v>
+        <v>437</v>
       </c>
       <c r="B79" t="n">
-        <v>71.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="B80" t="n">
-        <v>70.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>439</v>
       </c>
       <c r="B81" t="n">
-        <v>70.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>322</v>
+        <v>440</v>
       </c>
       <c r="B82" t="n">
-        <v>69.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>441</v>
       </c>
       <c r="B83" t="n">
-        <v>66.90000000000001</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>324</v>
+        <v>442</v>
       </c>
       <c r="B84" t="n">
-        <v>66.09999999999999</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>325</v>
+        <v>443</v>
       </c>
       <c r="B85" t="n">
-        <v>65.90000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>444</v>
       </c>
       <c r="B86" t="n">
-        <v>63.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>445</v>
       </c>
       <c r="B87" t="n">
-        <v>58.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>446</v>
       </c>
       <c r="B88" t="n">
-        <v>56.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>447</v>
       </c>
       <c r="B89" t="n">
-        <v>56.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>448</v>
       </c>
       <c r="B90" t="n">
-        <v>54.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>449</v>
       </c>
       <c r="B91" t="n">
-        <v>53.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>332</v>
+        <v>450</v>
       </c>
       <c r="B92" t="n">
-        <v>53.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>333</v>
+        <v>451</v>
       </c>
       <c r="B93" t="n">
-        <v>52.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>334</v>
+        <v>452</v>
       </c>
       <c r="B94" t="n">
-        <v>52.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>335</v>
+        <v>453</v>
       </c>
       <c r="B95" t="n">
-        <v>52</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>336</v>
+        <v>454</v>
       </c>
       <c r="B96" t="n">
-        <v>51.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>455</v>
       </c>
       <c r="B97" t="n">
-        <v>49.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>338</v>
+        <v>456</v>
       </c>
       <c r="B98" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>339</v>
+        <v>457</v>
       </c>
       <c r="B99" t="n">
-        <v>47.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>340</v>
+        <v>458</v>
       </c>
       <c r="B100" t="n">
-        <v>46.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>459</v>
       </c>
       <c r="B101" t="n">
-        <v>46.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>460</v>
       </c>
       <c r="B102" t="n">
-        <v>46.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>461</v>
       </c>
       <c r="B103" t="n">
-        <v>45.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>343</v>
+        <v>462</v>
       </c>
       <c r="B104" t="n">
-        <v>42.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="B105" t="n">
-        <v>41.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="B106" t="n">
-        <v>32.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>346</v>
+        <v>465</v>
       </c>
       <c r="B107" t="n">
-        <v>30.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>347</v>
+        <v>466</v>
       </c>
       <c r="B108" t="n">
-        <v>30.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>348</v>
+        <v>467</v>
       </c>
       <c r="B109" t="n">
-        <v>30.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>349</v>
+        <v>468</v>
       </c>
       <c r="B110" t="n">
-        <v>30.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="B111" t="n">
-        <v>30.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>351</v>
+        <v>470</v>
       </c>
       <c r="B112" t="n">
-        <v>28.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>471</v>
       </c>
       <c r="B113" t="n">
-        <v>28.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>353</v>
+        <v>472</v>
       </c>
       <c r="B114" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>354</v>
+        <v>473</v>
       </c>
       <c r="B115" t="n">
-        <v>27.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>355</v>
+        <v>125</v>
       </c>
       <c r="B116" t="n">
-        <v>26.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>356</v>
+        <v>474</v>
       </c>
       <c r="B117" t="n">
-        <v>25.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>357</v>
+        <v>475</v>
       </c>
       <c r="B118" t="n">
-        <v>24.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>358</v>
+        <v>476</v>
       </c>
       <c r="B119" t="n">
-        <v>24.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>477</v>
       </c>
       <c r="B120" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>360</v>
+        <v>478</v>
       </c>
       <c r="B121" t="n">
-        <v>23.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5010,993 +5978,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B121"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" t="n">
-        <v>175.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B3" t="n">
-        <v>136.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B4" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5" t="n">
-        <v>119.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B6" t="n">
-        <v>116.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" t="n">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" t="n">
-        <v>111.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B9" t="n">
-        <v>107.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" t="n">
-        <v>103.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>370</v>
-      </c>
-      <c r="B11" t="n">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B12" t="n">
-        <v>83.09999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B13" t="n">
-        <v>80.09999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" t="n">
-        <v>78.90000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>374</v>
-      </c>
-      <c r="B15" t="n">
-        <v>78.90000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>375</v>
-      </c>
-      <c r="B16" t="n">
-        <v>76.90000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>376</v>
-      </c>
-      <c r="B17" t="n">
-        <v>76.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>377</v>
-      </c>
-      <c r="B18" t="n">
-        <v>75.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>378</v>
-      </c>
-      <c r="B19" t="n">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>379</v>
-      </c>
-      <c r="B20" t="n">
-        <v>74.90000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" t="n">
-        <v>74.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>381</v>
-      </c>
-      <c r="B22" t="n">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>382</v>
-      </c>
-      <c r="B23" t="n">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>383</v>
-      </c>
-      <c r="B24" t="n">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>384</v>
-      </c>
-      <c r="B25" t="n">
-        <v>69.40000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>385</v>
-      </c>
-      <c r="B26" t="n">
-        <v>68.40000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="n">
-        <v>57.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>386</v>
-      </c>
-      <c r="B28" t="n">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>387</v>
-      </c>
-      <c r="B29" t="n">
-        <v>51.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>388</v>
-      </c>
-      <c r="B30" t="n">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>389</v>
-      </c>
-      <c r="B31" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>390</v>
-      </c>
-      <c r="B32" t="n">
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>391</v>
-      </c>
-      <c r="B33" t="n">
-        <v>45.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>392</v>
-      </c>
-      <c r="B34" t="n">
-        <v>40.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>393</v>
-      </c>
-      <c r="B35" t="n">
-        <v>39.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>394</v>
-      </c>
-      <c r="B36" t="n">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>395</v>
-      </c>
-      <c r="B37" t="n">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>396</v>
-      </c>
-      <c r="B38" t="n">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>397</v>
-      </c>
-      <c r="B39" t="n">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>398</v>
-      </c>
-      <c r="B40" t="n">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>399</v>
-      </c>
-      <c r="B41" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>400</v>
-      </c>
-      <c r="B42" t="n">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>401</v>
-      </c>
-      <c r="B43" t="n">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>402</v>
-      </c>
-      <c r="B44" t="n">
-        <v>32.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>403</v>
-      </c>
-      <c r="B45" t="n">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>404</v>
-      </c>
-      <c r="B46" t="n">
-        <v>30.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>405</v>
-      </c>
-      <c r="B47" t="n">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>406</v>
-      </c>
-      <c r="B48" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>407</v>
-      </c>
-      <c r="B49" t="n">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>408</v>
-      </c>
-      <c r="B50" t="n">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>409</v>
-      </c>
-      <c r="B51" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>410</v>
-      </c>
-      <c r="B52" t="n">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>411</v>
-      </c>
-      <c r="B53" t="n">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>412</v>
-      </c>
-      <c r="B54" t="n">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>413</v>
-      </c>
-      <c r="B55" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>414</v>
-      </c>
-      <c r="B56" t="n">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>415</v>
-      </c>
-      <c r="B57" t="n">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>416</v>
-      </c>
-      <c r="B58" t="n">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>417</v>
-      </c>
-      <c r="B59" t="n">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>418</v>
-      </c>
-      <c r="B60" t="n">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>419</v>
-      </c>
-      <c r="B61" t="n">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>420</v>
-      </c>
-      <c r="B62" t="n">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>421</v>
-      </c>
-      <c r="B63" t="n">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>422</v>
-      </c>
-      <c r="B64" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>423</v>
-      </c>
-      <c r="B65" t="n">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>424</v>
-      </c>
-      <c r="B66" t="n">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>425</v>
-      </c>
-      <c r="B67" t="n">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>426</v>
-      </c>
-      <c r="B68" t="n">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>427</v>
-      </c>
-      <c r="B69" t="n">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>428</v>
-      </c>
-      <c r="B70" t="n">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>429</v>
-      </c>
-      <c r="B71" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>430</v>
-      </c>
-      <c r="B72" t="n">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>431</v>
-      </c>
-      <c r="B73" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>432</v>
-      </c>
-      <c r="B74" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>433</v>
-      </c>
-      <c r="B75" t="n">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>434</v>
-      </c>
-      <c r="B76" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>435</v>
-      </c>
-      <c r="B77" t="n">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>436</v>
-      </c>
-      <c r="B78" t="n">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>437</v>
-      </c>
-      <c r="B79" t="n">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>438</v>
-      </c>
-      <c r="B80" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>439</v>
-      </c>
-      <c r="B81" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>440</v>
-      </c>
-      <c r="B82" t="n">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>441</v>
-      </c>
-      <c r="B83" t="n">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>442</v>
-      </c>
-      <c r="B84" t="n">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>443</v>
-      </c>
-      <c r="B85" t="n">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>444</v>
-      </c>
-      <c r="B86" t="n">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>445</v>
-      </c>
-      <c r="B87" t="n">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>446</v>
-      </c>
-      <c r="B88" t="n">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>447</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>448</v>
-      </c>
-      <c r="B90" t="n">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>449</v>
-      </c>
-      <c r="B91" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>450</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>451</v>
-      </c>
-      <c r="B93" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>452</v>
-      </c>
-      <c r="B94" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>453</v>
-      </c>
-      <c r="B95" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>454</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>455</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>456</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>457</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>458</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>459</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>460</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>461</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>462</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>463</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>464</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>465</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>466</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>467</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>468</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>469</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>470</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>471</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>472</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>473</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>474</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>475</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>476</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>477</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>478</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6279,7 +6260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
